--- a/Soutenances M1 janvier 2020 - V2.xlsx
+++ b/Soutenances M1 janvier 2020 - V2.xlsx
@@ -1846,7 +1846,7 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
